--- a/Kosten verzekering.xlsx
+++ b/Kosten verzekering.xlsx
@@ -656,7 +656,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="11" width="13.005" customWidth="1" bestFit="1"/>

--- a/Kosten verzekering.xlsx
+++ b/Kosten verzekering.xlsx
@@ -37,7 +37,7 @@
     <t>Monthly Cost (EUR) Full Coverage</t>
   </si>
   <si>
-    <t>Monthly Cost (EUR) Minimum Coverage</t>
+    <t xml:space="preserve">Monthly Cost (EUR) Minimum Coverage </t>
   </si>
   <si>
     <t>Alabama</t>
@@ -259,7 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -326,17 +326,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
